--- a/PhanCongGiangDay/PhanCongGiangDay/Templates/Mau04.xlsx
+++ b/PhanCongGiangDay/PhanCongGiangDay/Templates/Mau04.xlsx
@@ -350,6 +350,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -365,9 +368,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,81 +961,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="24"/>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="24"/>
@@ -1073,48 +1073,48 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1137,121 +1137,121 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="45" t="s">
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="46" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="3" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45" t="s">
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45" t="s">
+      <c r="M10" s="46"/>
+      <c r="N10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
     </row>
     <row r="11" spans="1:18" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="51" t="s">
+      <c r="L11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="46">
         <v>1</v>
       </c>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45">
+      <c r="O11" s="46"/>
+      <c r="P11" s="46">
         <v>2</v>
       </c>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
       <c r="N12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="Q12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="45"/>
+      <c r="R12" s="46"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -2661,6 +2661,25 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:R1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G3:R3"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="I10:K10"/>
@@ -2670,29 +2689,10 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:R1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="G3:R3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="R9:R12"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.51181102362204722" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="26" max="17" man="1"/>

--- a/PhanCongGiangDay/PhanCongGiangDay/Templates/Mau04.xlsx
+++ b/PhanCongGiangDay/PhanCongGiangDay/Templates/Mau04.xlsx
@@ -16,8 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mẫu  4'!$A$14:$AA$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Mẫu  4'!$A$1:$R$46</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Mẫu  4'!$10:$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Mẫu  4'!$A$1:$R$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -350,10 +349,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -936,10 +935,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,121 +1139,121 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="46" t="s">
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="45" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="3" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46" t="s">
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46" t="s">
+      <c r="M10" s="45"/>
+      <c r="N10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
     </row>
     <row r="11" spans="1:18" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="45" t="s">
+      <c r="L11" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="45">
         <v>1</v>
       </c>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46">
+      <c r="O11" s="45"/>
+      <c r="P11" s="45">
         <v>2</v>
       </c>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
       <c r="N12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1264,7 +1266,7 @@
       <c r="Q12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="46"/>
+      <c r="R12" s="45"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -2669,12 +2671,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:Q9"/>
     <mergeCell ref="R9:R12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:R1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="G3:R3"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
@@ -2683,6 +2679,12 @@
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:R1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G3:R3"/>
     <mergeCell ref="N10:Q10"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
@@ -2692,8 +2694,8 @@
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="P11:Q11"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="26" max="17" man="1"/>
     <brk id="46" max="16383" man="1"/>
